--- a/WebApp/Dataset/tcg_monitor.xlsx
+++ b/WebApp/Dataset/tcg_monitor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5388,6 +5388,4871 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pikachu (MCD16 6)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pikachu</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Promo</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MCD16 6</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>171</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="K66" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="L66" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="M66" t="n">
+        <v>6</v>
+      </c>
+      <c r="N66" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/McDonalds-Collection-2016/Pikachu-MCD166?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\MCD16\pokemon_pikachu_mcd16_6.jpg</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:39:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Glaceon Lv.46 (MD 20)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Glaceon</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MD 20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Played</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>343</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Majestic-Dawn/Glaceon-Lv46-MD20?language=5&amp;minCondition=6&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\MD\pokemon_glaceon_lv46_md_20.jpg</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:39:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Magearna EX (STS 110)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Magearna</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>STS 110</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>134</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L68" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Steam-Siege/Magearna-EX-V2-STS110?language=5&amp;minCondition=3&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\STS\pokemon_magearna_ex_sts_110.jpg</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MVenusaur EX (EVO 2)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Venusaur</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>EVO 2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>231</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="K69" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="L69" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="M69" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Evolutions/MVenusaur-EX-EVO2?language=5&amp;minCondition=7&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\EVO\pokemon_mvenusaur_ex_evo_2.jpg</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:40:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Raikou EX (DEX 38)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Raikou</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DEX 38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>51</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="K70" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="L70" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="M70" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Dark-Explorers/Raikou-EX-DEX38?language=5&amp;minCondition=7&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\DEX\pokemon_raikou_ex_dex_38.jpg</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Dark Rapidash (TR 44)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rapidash</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TR 44</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>557</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Team-Rocket/Dark-Rapidash-TR44?language=5&amp;minCondition=3&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\TR\pokemon_dark_rapidash_tr_44.jpg</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Florges EX (PHF 67)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Florges</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>PHF 67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Played</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>69</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Phantom-Forces/Florges-EX-PHF67?language=5&amp;minCondition=6&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\PHF\pokemon_florges_ex_phf_67.jpg</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Togepi (AQ 114)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Togepi</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>AQ 114</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>141</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Aquapolis/Togepi-AQ114?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\AQ\pokemon_togepi_aq_114.jpg</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:41:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Pidgey (EX 123)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pidgey</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>EX 123</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>138</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Expedition-Base-Set/Pidgey-EX123?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\EX\pokemon_pidgey_ex_123.jpg</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:42:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Shaymin EX (NXD 5)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Shaymin</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NXD 5</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>112</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Next-Destinies/Shaymin-EX-NXD5?language=5&amp;minCondition=7&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\NXD\pokemon_shaymin_ex_nxd_5.jpg</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:42:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MMewtwo EX (BKT 63)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mewtwo</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>BKT 63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Played</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>96</v>
+      </c>
+      <c r="I76" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="J76" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="K76" t="n">
+        <v>34.86</v>
+      </c>
+      <c r="L76" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="M76" t="n">
+        <v>16</v>
+      </c>
+      <c r="N76" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/BREAKthrough/MMewtwo-EX-V1-BKT63?language=5&amp;minCondition=6&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\BKT\pokemon_mmewtwo_ex_bkt_63.jpg</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:43:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Zapdos (FO 30)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Zapdos</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>FO 30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>497</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J77" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K77" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="L77" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="N77" t="n">
+        <v>7</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Fossil/Zapdos-V2-FO30?language=5&amp;minCondition=4&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\FO\pokemon_zapdos_fo_30.jpg</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:43:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Zapdos (EVO 42)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Zapdos</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>EVO 42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>171</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K78" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="L78" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="M78" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Evolutions/Zapdos-EVO42?language=5&amp;minCondition=3&amp;isReverseHolo=Y</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\EVO\pokemon_zapdos_evo_42.jpg</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:43:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Charizard (EVO 11)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Charizard</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>EVO 11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>254</v>
+      </c>
+      <c r="I79" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="J79" t="n">
+        <v>99.09</v>
+      </c>
+      <c r="K79" t="n">
+        <v>81.04000000000001</v>
+      </c>
+      <c r="L79" t="n">
+        <v>57.52</v>
+      </c>
+      <c r="M79" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="N79" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Evolutions/Charizard-V1-EVO11?language=5&amp;minCondition=3&amp;isReverseHolo=Y</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\EVO\pokemon_charizard_evo_11.jpg</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:44:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mewtwo (BS 10)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mewtwo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>BS 10</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Inglese</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1167</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="K80" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="L80" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="M80" t="n">
+        <v>7</v>
+      </c>
+      <c r="N80" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Base-Set/Mewtwo-V1-BS10?language=1&amp;minCondition=4&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\BS\pokemon_mewtwo_bs_10.jpg</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:44:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Espeon (UD 2)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Espeon</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UD 2</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>74</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K81" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="L81" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Undaunted/Espeon-UD2?language=5&amp;minCondition=4&amp;isReverseHolo=Y</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\UD\pokemon_espeon_ud_2.jpg</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:44:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Wigglytuff (JU 16)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Wigglytuff</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>JU 16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Played</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>326</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="K82" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="L82" t="n">
+        <v>24.76</v>
+      </c>
+      <c r="M82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Jungle/Wigglytuff-V1-JU16?language=5&amp;minCondition=6&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\JU\pokemon_wigglytuff_ju_16.jpg</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:45:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Lapras (FO 10)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Lapras</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>FO 10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Played</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>811</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="L83" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="M83" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Fossil/Lapras-V1-FO10?language=5&amp;minCondition=6&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\FO\pokemon_lapras_fo_10.jpg</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:45:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Unown [A] (NDI 14)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Unown</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holo Rare </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NDI 14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>342</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Neo-Discovery/Unown-A-NDI14?language=5&amp;minCondition=7&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\NDI\pokemon_unown_a_ndi_14.jpg</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:46:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Golisopod GX (BUS 17)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Golisopod</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BUS 17</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>320</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Burning-Shadows/Golisopod-GX-V1-BUS17?language=5&amp;minCondition=3&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\BUS\pokemon_golisopod_gx_bus_17.jpg</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Altaria GX (DRM 41)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Altaria</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DRM 41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>145</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="K86" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Dragon-Majesty/Altaria-GX-V1-DRM41?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\DRM\pokemon_altaria_gx_drm_41.jpg</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:46:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mr. Mime GX (TEU 67)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Mr. Mime</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>TEU 67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>210</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Team-Up/Mr-Mime-GX-TEU67?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\TEU\pokemon_mr_mime_gx_teu_67.jpg</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:47:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lapras GX (SUM 35)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Lapras</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SUM 35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Inglese</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>281</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Sun-Moon/Lapras-GX-V1-SUM35?language=1&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SUM\pokemon_lapras_gx_sum_35.jpg</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:47:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Gyarados GX (HIF 16)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Gyarados</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>HIF 16</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>274</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Hidden-Fates/Gyarados-GX-HIF16?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\HIF\pokemon_gyarados_gx_hif_16.jpg</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:47:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Greninja GX (SM 197)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Greninja</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Promo</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SM 197</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>99</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="K90" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="M90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/SM-Black-Star-Promos/Greninja-GX-SM197?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SM\pokemon_greninja_gx_sm_197.jpg</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:48:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Giratina V ASTRO (LOR 131)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Giratina</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>LOR 131</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Lost-Origin/Giratina-VSTAR-V1-LOR131?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\LOR\pokemon_giratina_v_astro_lor_131.jpg</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:48:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Decidueye di Hisui V ASTRO (ASR 084)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Decidueye</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ASR 084</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>643</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Astral-Radiance/Hisuian-Decidueye-VSTAR-V1-ASR084?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\ASR\pokemon_decidueye_di_hisui_v_astro_asr_084.jpg</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:49:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Aerodactyl V ASTRO (LOR 093)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Aerodactyl</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>LOR 093</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1533</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Lost-Origin/Aerodactyl-VSTAR-V1-LOR093?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\LOR\pokemon_aerodactyl_v_astro_lor_093.jpg</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:49:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Zoroark di Hisui V ASTRO (LOR 147)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Zoroark</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>LOR 147</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1529</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Lost-Origin/Hisuian-Zoroark-VSTAR-V1-LOR147?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\LOR\pokemon_zoroark_di_hisui_v_astro_lor_147.jpg</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:50:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Magnezone V ASTRO (LOR 057)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Magnezone</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>LOR 057</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1770</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Lost-Origin/Magnezone-VSTAR-V1-LOR057?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\LOR\pokemon_magnezone_v_astro_lor_057.jpg</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:50:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Samurott di Hisui V ASTRO (ASR 102)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Samurott</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ASR 102</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>568</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Astral-Radiance/Hisuian-Samurott-VSTAR-V1-ASR102?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\ASR\pokemon_samurott_di_hisui_v_astro_asr_102.jpg</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:51:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Serperior V ASTRO (SIT 008)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Serperior</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SIT 008</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1141</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Silver-Tempest/Serperior-VSTAR-V1-SIT008?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SIT\pokemon_serperior_v_astro_sit_008.jpg</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:51:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Hydrapple ex (SCR 156)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Appliserpe</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SCR 156</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>701</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Stellar-Crown/Hydrapple-ex-V2-SCR156?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SCR\pokemon_hydrapple_ex_scr_156.jpg</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:55:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Absol ex (OBF 214)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Absol</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>OBF 214</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>595</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Obsidian-Flames/Absol-ex-V2-OBF215?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\OBF\pokemon_absol_ex_obf_214.jpg</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:56:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Noivern ex (PAL 246)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Noivern</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>PAL 246</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>491</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paldea-Evolved/Noivern-ex-V2-PAL246?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\PAL\pokemon_noivern_ex_pal_246.jpg</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:56:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Glimmora ex (OBF 213)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Glimmora</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>OBF 213</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>974</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Obsidian-Flames/Glimmora-ex-V2-OBF213?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\OBF\pokemon_glimmora_ex_obf_213.jpg</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:57:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Eiscue ex (OBF 210)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Eiscue</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>OBF 210</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>704</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Obsidian-Flames/Eiscue-ex-V2-OBF210?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\OBF\pokemon_eiscue_ex_obf_210.jpg</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:57:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Grandizanne ex (SVI 230)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Grandizanne</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>SVI 230</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>715</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Scarlet-Violet/Great-Tusk-ex-V2-SVI230?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SVI\pokemon_grandizanne_ex_svi_230.jpg</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Oinkologne ex (SVI 234)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Oinkologne</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>SVI 234</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>671</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Scarlet-Violet/Oinkologne-ex-V2-SVI234?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SVI\pokemon_oinkologne_ex_svi_234.jpg</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:58:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Medicham ex (SCR 161)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Medicham</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SCR 161</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1029</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Stellar-Crown/Medicham-ex-V2-SCR161?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SCR\pokemon_medicham_ex_scr_161.jpg</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:58:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Garchomp ex (PAR 038)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Garchomp</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>PAR 038</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>910</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paradox-Rift/Garchomp-ex-V1-PAR038?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\PAR\pokemon_garchomp_ex_par_038.jpg</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:59:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pikachu ex (PAL 063)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Pikachu</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>PAL 063</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>893</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paldea-Evolved/Pikachu-ex-V1-PAL063?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\PAL\pokemon_pikachu_ex_pal_063.jpg</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:59:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Miraidon ex (OBF 079)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Miraidon</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>OBF 079</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>659</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O108" t="n">
+        <v>2</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Obsidian-Flames/Miraidon-ex-OBF079?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\OBF\pokemon_miraidon_ex_obf_079.jpg</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>2025-10-31 08:59:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Jolteon VMAX (EVS 051)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Jolteon</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>EVS 051</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>344</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Evolving-Skies/Jolteon-VMAX-V1-EVS051?isReverseHolo=Y?language=5&amp;minCondition=4&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\EVS\pokemon_jolteon_vmax_evs_051.jpg</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lechonk (OBF 209)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Lechonk</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>OBF 209</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>615</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L110" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Obsidian-Flames/Lechonk-V2-OBF209?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\OBF\pokemon_lechonk_obf_209.jpg</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:00:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Rotom V (LOR 176)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rotom</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>LOR 176</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>459</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Lost-Origin/Rotom-V-V2-LOR176?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\LOR\pokemon_rotom_v_lor_176.jpg</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:01:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Granbull V (BRS 159)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Granbull</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>BRS 159</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>578</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Brilliant-Stars/Granbull-V-V2-BRS159?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\BRS\pokemon_granbull_v_brs_159.jpg</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:01:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Honchkrow V (BRS 161)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Honchkrow</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>BRS 161</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>607</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Brilliant-Stars/Honchkrow-V-V2-BRS161?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\BRS\pokemon_honchkrow_v_brs_161.jpg</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:01:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Abomasnow (PAF 101)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Abomasnow</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Shiny Rare</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>PAF 101</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>355</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paldean-Fates/Abomasnow-PAF101?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\PAF\pokemon_abomasnow_paf_101.jpg</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:02:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Tornadus V (CRE 124)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Tornadus</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>CRE 124</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1058</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Chilling-Reign/Tornadus-V-V1-CRE124?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\CRE\pokemon_tornadus_v_cre_124.jpg</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:02:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Liepard V (CRE 104)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Liepard</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>CRE 104</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>742</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Chilling-Reign/Liepard-V-V1-CRE104?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\CRE\pokemon_liepard_v_cre_104.jpg</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:03:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Urshifu Singolcolpo V (BST 85)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Urshifu</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>BST 85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1068</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Battle-Styles/Single-Strike-Urshifu-V-V1-BST85?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\BST\pokemon_urshifu_singolcolpo_v_bst_85.jpg</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:03:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Mew V (FST 113)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Mew</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>FST 113</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>862</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Fusion-Strike/Mew-V-V1?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\FST\pokemon_mew_v_fst_113.jpg</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:03:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mew V (CRZ 060)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Mew</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>CRZ 060</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>484</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Crown-Zenith/Mew-V-CRZ060?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\CRZ\pokemon_mew_v_crz_060.jpg</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:04:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Pikachu V (SWSH 061)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pikachu</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Promo</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SWSH 061</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1903</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/SWSH-Black-Star-Promos/Pikachu-V-V1-SWSH061?isReverseHolo=Y?language=5&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\SWSH\pokemon_pikachu_v_swsh_061.jpg</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:04:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Flapple (sv7a 074)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Flapple</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>sv7a 074</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>736</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paradise-Dragona/Flapple-V2-sv7a074?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv7a\pokemon_flapple_sv7a_074.jpg</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:04:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Cetitan (sv7a 069)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Cetitan</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>sv7a 069</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>902</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paradise-Dragona/Cetitan-V2-sv7a069?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv7a\pokemon_cetitan_sv7a_069.jpg</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:05:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Spheal (sv8 111)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Spheal</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>sv8 111</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>385</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Super-Electric-Breaker/Spheal-V2-sv8111?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv8\pokemon_spheal_sv8_111.jpg</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Skarmory (sv7a 073)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Skarmory</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>sv7a 073</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>496</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paradise-Dragona/Skarmory-V2-sv7a073?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv7a\pokemon_skarmory_sv7a_073.jpg</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:06:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Braviary (sv7a 076)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Braviary</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>sv7a 076</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>487</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M125" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Paradise-Dragona/Braviary-V2-sv7a076?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv7a\pokemon_braviary_sv7a_076.jpg</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:06:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Absol ex (sv3 126)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Absol</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>sv3 126</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>113</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Absol-ex-V2-sv3126?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv3\pokemon_absol_ex_sv3_126.jpg</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:07:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Alakazam ex (sv4a 326)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Alakazam</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Shiny Ultra Rare</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>sv4a 326</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>176</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Shiny-Treasure-ex/Alakazam-ex-V2-sv4a326?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sv4a\pokemon_alakazam_ex_sv4a_326.jpg</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:07:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Dedenne GX (sm12a 048)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Dedenne</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>sm12a 048</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>45</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Tag-All-Stars/Dedenne-GX-V1-sm12a048?isReverseHolo=Y?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sm12a\pokemon_dedenne_gx_sm12a_048.jpg</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:08:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>pokemon</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pheromosa &amp; Buzzwole GX (sm12a 001)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Buzzwole
+Pheromosa</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>sm12a 001</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Giapponese</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Near Mint</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>https://www.cardmarket.com/it/Pokemon/Products/Singles/Tag-All-Stars/Pheromosa-Buzzwole-GX-sm12a001?language=7&amp;minCondition=2&amp;isReverseHolo=N</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Dataset/pokemon\sm12a\pokemon_pheromosa_buzzwole_gx_sm12a_001.jpg</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>2025-10-31 09:08:37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
